--- a/arqueo - plantilla.xlsx
+++ b/arqueo - plantilla.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7BE2FF6-11A0-4264-B16B-7A230A652514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FCCC8D-1808-4A1C-AF90-8933A6535739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CC199F8-03E1-43DD-8598-5C123782AE62}"/>
   </bookViews>
@@ -151,16 +151,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="48"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -487,66 +487,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,8 +554,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -576,6 +587,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Limpiar</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,14 +963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7E08CA-4BDC-4FFB-9C62-49FDD2F4E416}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7E08CA-4BDC-4FFB-9C62-49FDD2F4E416}">
+  <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,371 +981,381 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="2" spans="1:8" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="13">
+        <f>+A12*500</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="15">
+        <f>+A13*200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="15">
+        <f>+A14*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="15">
+        <f>+A15*50</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>3</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28">
-        <f>+A16*500</f>
-        <v>1500</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="15">
+        <f>+A16*20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="30">
-        <f>+A17*200</f>
-        <v>800</v>
+      <c r="A17" s="14"/>
+      <c r="B17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="15">
+        <f>+A17*10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="30">
-        <f>+A18*100</f>
-        <v>500</v>
+      <c r="A18" s="14"/>
+      <c r="B18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="15">
+        <f>+A18*5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="30">
-        <f>+A19*50</f>
-        <v>300</v>
+      <c r="A19" s="14"/>
+      <c r="B19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="15">
+        <f>+A19*2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
-        <v>5</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="30">
-        <f>+A20*20</f>
-        <v>100</v>
+      <c r="A20" s="14"/>
+      <c r="B20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="15">
+        <f>+A20*1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="30">
-        <f>+A21*10</f>
+      <c r="A21" s="14"/>
+      <c r="B21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="15">
+        <f>+A21*0.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="30">
-        <f>+A22*5</f>
+      <c r="A22" s="14"/>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="15">
+        <f>+A22*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="30">
-        <f>+A23*2</f>
+      <c r="A23" s="14"/>
+      <c r="B23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="15">
+        <f>+A23*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="30">
-        <f>+A24*1</f>
+      <c r="A24" s="14"/>
+      <c r="B24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="15">
+        <f>+A24*0.05</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
-        <v>1</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="30">
-        <f>+A25*0.5</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
-        <v>10</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="30">
-        <f>+A26*0.2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
-        <v>25</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="30">
-        <f>+A27*0.1</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
-        <v>35</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="30">
-        <f>+A28*0.05</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="25" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="30">
-        <f>+A29*0.02</f>
-        <v>0</v>
-      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="15">
+        <f>+A25*0.02</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="17">
+        <f>+A26*0.01</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="H28" s="22">
+        <f>SUM(E12:E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
-        <f>+A30*0.01</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="E31" s="3"/>
+      <c r="B30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="H32" s="41">
-        <f>SUM(E16:E30)</f>
-        <v>3206.75</v>
-      </c>
+      <c r="B32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="11"/>
+      <c r="B33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="12">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="12">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="12">
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="34" t="s">
+      <c r="D34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36">
-        <f>SUM(H32:H37)+H11</f>
-        <v>4231.75</v>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20">
+        <f>SUM(H28:H33)+H7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:G11"/>
+  <mergeCells count="22">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!limpiar">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>